--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Slamf6-Slamf6.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Slamf6-Slamf6.xlsx
@@ -531,16 +531,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.1163983333333333</v>
+        <v>0.002776666666666667</v>
       </c>
       <c r="H2">
-        <v>0.349195</v>
+        <v>0.008330000000000001</v>
       </c>
       <c r="I2">
-        <v>0.9858639985093253</v>
+        <v>0.2989949748743719</v>
       </c>
       <c r="J2">
-        <v>0.9858639985093253</v>
+        <v>0.2989949748743719</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -549,28 +549,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.1163983333333333</v>
+        <v>0.002776666666666667</v>
       </c>
       <c r="N2">
-        <v>0.349195</v>
+        <v>0.008330000000000001</v>
       </c>
       <c r="O2">
-        <v>0.9858639985093253</v>
+        <v>0.2989949748743719</v>
       </c>
       <c r="P2">
-        <v>0.9858639985093253</v>
+        <v>0.2989949748743719</v>
       </c>
       <c r="Q2">
-        <v>0.01354857200277778</v>
+        <v>7.709877777777779E-06</v>
       </c>
       <c r="R2">
-        <v>0.121937148025</v>
+        <v>6.938890000000002E-05</v>
       </c>
       <c r="S2">
-        <v>0.9719278235567949</v>
+        <v>0.08939799500012631</v>
       </c>
       <c r="T2">
-        <v>0.9719278235567949</v>
+        <v>0.08939799500012627</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,16 +593,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.1163983333333333</v>
+        <v>0.002776666666666667</v>
       </c>
       <c r="H3">
-        <v>0.349195</v>
+        <v>0.008330000000000001</v>
       </c>
       <c r="I3">
-        <v>0.9858639985093253</v>
+        <v>0.2989949748743719</v>
       </c>
       <c r="J3">
-        <v>0.9858639985093253</v>
+        <v>0.2989949748743719</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -617,22 +617,22 @@
         <v>0.004415</v>
       </c>
       <c r="O3">
-        <v>0.01246463882191518</v>
+        <v>0.1584709260588658</v>
       </c>
       <c r="P3">
-        <v>0.01246463882191518</v>
+        <v>0.1584709260588658</v>
       </c>
       <c r="Q3">
-        <v>0.0001712995472222222</v>
+        <v>4.086327777777777E-06</v>
       </c>
       <c r="R3">
-        <v>0.001541695925</v>
+        <v>3.677695E-05</v>
       </c>
       <c r="S3">
-        <v>0.01228843866894786</v>
+        <v>0.04738201055528902</v>
       </c>
       <c r="T3">
-        <v>0.01228843866894786</v>
+        <v>0.04738201055528901</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,16 +655,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.1163983333333333</v>
+        <v>0.002776666666666667</v>
       </c>
       <c r="H4">
-        <v>0.349195</v>
+        <v>0.008330000000000001</v>
       </c>
       <c r="I4">
-        <v>0.9858639985093253</v>
+        <v>0.2989949748743719</v>
       </c>
       <c r="J4">
-        <v>0.9858639985093253</v>
+        <v>0.2989949748743719</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -673,28 +673,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.0001973333333333333</v>
+        <v>0.005038333333333333</v>
       </c>
       <c r="N4">
-        <v>0.000592</v>
+        <v>0.015115</v>
       </c>
       <c r="O4">
-        <v>0.001671362668759634</v>
+        <v>0.5425340990667624</v>
       </c>
       <c r="P4">
-        <v>0.001671362668759634</v>
+        <v>0.5425340990667624</v>
       </c>
       <c r="Q4">
-        <v>2.296927111111111E-05</v>
+        <v>1.398977222222222E-05</v>
       </c>
       <c r="R4">
-        <v>0.00020672344</v>
+        <v>0.00012590795</v>
       </c>
       <c r="S4">
-        <v>0.00164773628358259</v>
+        <v>0.1622149693189567</v>
       </c>
       <c r="T4">
-        <v>0.00164773628358259</v>
+        <v>0.1622149693189566</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,10 +723,10 @@
         <v>0.004415</v>
       </c>
       <c r="I5">
-        <v>0.01246463882191518</v>
+        <v>0.1584709260588658</v>
       </c>
       <c r="J5">
-        <v>0.01246463882191518</v>
+        <v>0.1584709260588658</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -735,28 +735,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.1163983333333333</v>
+        <v>0.002776666666666667</v>
       </c>
       <c r="N5">
-        <v>0.349195</v>
+        <v>0.008330000000000001</v>
       </c>
       <c r="O5">
-        <v>0.9858639985093253</v>
+        <v>0.2989949748743719</v>
       </c>
       <c r="P5">
-        <v>0.9858639985093253</v>
+        <v>0.2989949748743719</v>
       </c>
       <c r="Q5">
-        <v>0.0001712995472222222</v>
+        <v>4.086327777777777E-06</v>
       </c>
       <c r="R5">
-        <v>0.001541695925</v>
+        <v>3.677695E-05</v>
       </c>
       <c r="S5">
-        <v>0.01228843866894786</v>
+        <v>0.04738201055528902</v>
       </c>
       <c r="T5">
-        <v>0.01228843866894786</v>
+        <v>0.04738201055528901</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,10 +785,10 @@
         <v>0.004415</v>
       </c>
       <c r="I6">
-        <v>0.01246463882191518</v>
+        <v>0.1584709260588658</v>
       </c>
       <c r="J6">
-        <v>0.01246463882191518</v>
+        <v>0.1584709260588658</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -803,10 +803,10 @@
         <v>0.004415</v>
       </c>
       <c r="O6">
-        <v>0.01246463882191518</v>
+        <v>0.1584709260588658</v>
       </c>
       <c r="P6">
-        <v>0.01246463882191518</v>
+        <v>0.1584709260588658</v>
       </c>
       <c r="Q6">
         <v>2.165802777777777E-06</v>
@@ -815,10 +815,10 @@
         <v>1.9492225E-05</v>
       </c>
       <c r="S6">
-        <v>0.000155367220960795</v>
+        <v>0.0251130344059545</v>
       </c>
       <c r="T6">
-        <v>0.000155367220960795</v>
+        <v>0.0251130344059545</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,10 +847,10 @@
         <v>0.004415</v>
       </c>
       <c r="I7">
-        <v>0.01246463882191518</v>
+        <v>0.1584709260588658</v>
       </c>
       <c r="J7">
-        <v>0.01246463882191518</v>
+        <v>0.1584709260588658</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -859,28 +859,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.0001973333333333333</v>
+        <v>0.005038333333333333</v>
       </c>
       <c r="N7">
-        <v>0.000592</v>
+        <v>0.015115</v>
       </c>
       <c r="O7">
-        <v>0.001671362668759634</v>
+        <v>0.5425340990667624</v>
       </c>
       <c r="P7">
-        <v>0.001671362668759634</v>
+        <v>0.5425340990667624</v>
       </c>
       <c r="Q7">
-        <v>2.904088888888888E-07</v>
+        <v>7.414747222222221E-06</v>
       </c>
       <c r="R7">
-        <v>2.61368E-06</v>
+        <v>6.6732725E-05</v>
       </c>
       <c r="S7">
-        <v>2.08329320065211E-05</v>
+        <v>0.08597588109762226</v>
       </c>
       <c r="T7">
-        <v>2.08329320065211E-05</v>
+        <v>0.08597588109762226</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,16 +903,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.0001973333333333333</v>
+        <v>0.005038333333333333</v>
       </c>
       <c r="H8">
-        <v>0.000592</v>
+        <v>0.015115</v>
       </c>
       <c r="I8">
-        <v>0.001671362668759634</v>
+        <v>0.5425340990667624</v>
       </c>
       <c r="J8">
-        <v>0.001671362668759634</v>
+        <v>0.5425340990667624</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -921,28 +921,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.1163983333333333</v>
+        <v>0.002776666666666667</v>
       </c>
       <c r="N8">
-        <v>0.349195</v>
+        <v>0.008330000000000001</v>
       </c>
       <c r="O8">
-        <v>0.9858639985093253</v>
+        <v>0.2989949748743719</v>
       </c>
       <c r="P8">
-        <v>0.9858639985093253</v>
+        <v>0.2989949748743719</v>
       </c>
       <c r="Q8">
-        <v>2.296927111111111E-05</v>
+        <v>1.398977222222222E-05</v>
       </c>
       <c r="R8">
-        <v>0.00020672344</v>
+        <v>0.00012590795</v>
       </c>
       <c r="S8">
-        <v>0.00164773628358259</v>
+        <v>0.1622149693189567</v>
       </c>
       <c r="T8">
-        <v>0.00164773628358259</v>
+        <v>0.1622149693189566</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,16 +965,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.0001973333333333333</v>
+        <v>0.005038333333333333</v>
       </c>
       <c r="H9">
-        <v>0.000592</v>
+        <v>0.015115</v>
       </c>
       <c r="I9">
-        <v>0.001671362668759634</v>
+        <v>0.5425340990667624</v>
       </c>
       <c r="J9">
-        <v>0.001671362668759634</v>
+        <v>0.5425340990667624</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -989,22 +989,22 @@
         <v>0.004415</v>
       </c>
       <c r="O9">
-        <v>0.01246463882191518</v>
+        <v>0.1584709260588658</v>
       </c>
       <c r="P9">
-        <v>0.01246463882191518</v>
+        <v>0.1584709260588658</v>
       </c>
       <c r="Q9">
-        <v>2.904088888888888E-07</v>
+        <v>7.414747222222221E-06</v>
       </c>
       <c r="R9">
-        <v>2.61368E-06</v>
+        <v>6.6732725E-05</v>
       </c>
       <c r="S9">
-        <v>2.08329320065211E-05</v>
+        <v>0.08597588109762226</v>
       </c>
       <c r="T9">
-        <v>2.08329320065211E-05</v>
+        <v>0.08597588109762226</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,16 +1027,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.0001973333333333333</v>
+        <v>0.005038333333333333</v>
       </c>
       <c r="H10">
-        <v>0.000592</v>
+        <v>0.015115</v>
       </c>
       <c r="I10">
-        <v>0.001671362668759634</v>
+        <v>0.5425340990667624</v>
       </c>
       <c r="J10">
-        <v>0.001671362668759634</v>
+        <v>0.5425340990667624</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1045,28 +1045,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.0001973333333333333</v>
+        <v>0.005038333333333333</v>
       </c>
       <c r="N10">
-        <v>0.000592</v>
+        <v>0.015115</v>
       </c>
       <c r="O10">
-        <v>0.001671362668759634</v>
+        <v>0.5425340990667624</v>
       </c>
       <c r="P10">
-        <v>0.001671362668759634</v>
+        <v>0.5425340990667624</v>
       </c>
       <c r="Q10">
-        <v>3.894044444444444E-08</v>
+        <v>2.538480277777778E-05</v>
       </c>
       <c r="R10">
-        <v>3.50464E-07</v>
+        <v>0.000228463225</v>
       </c>
       <c r="S10">
-        <v>2.793453170523328E-06</v>
+        <v>0.2943432486501836</v>
       </c>
       <c r="T10">
-        <v>2.793453170523328E-06</v>
+        <v>0.2943432486501836</v>
       </c>
     </row>
   </sheetData>
